--- a/Reserva_entrada.xlsx
+++ b/Reserva_entrada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cammesacomar-my.sharepoint.com/personal/nicolasdesanjuan_cammesa_com_ar/Documents/Facultad/Proyecyo final Brunello/Formato de la entrada y salida/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PF_IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="11_AD4D2F04E46CFB4ACB3E2071ED53E6FE683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E11E8F2-FB54-4A20-9CFC-DDFBB56595DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDABF8C-354F-4941-8C74-177DECF8AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,6 +638,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,19 +660,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,12 +962,12 @@
         <v>34</v>
       </c>
       <c r="B1" s="10">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -993,7 +993,7 @@
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1005,45 +1005,45 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="22" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1103,30 +1103,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="16">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="16">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>206</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="16">
         <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1238,15 +1238,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="16">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="16">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1291,13 +1291,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="16">
         <v>98011</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="16">
         <v>98012</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>98013</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="16">
         <v>98014</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="16">
         <v>98015</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="16">
         <v>98016</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="16">
         <v>98017</v>
       </c>
       <c r="B8" s="2" t="s">
